--- a/team_specific_matrix/Virginia_B.xlsx
+++ b/team_specific_matrix/Virginia_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1834862385321101</v>
+        <v>0.1908177905308465</v>
       </c>
       <c r="C2">
-        <v>0.5743119266055046</v>
+        <v>0.5581061692969871</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02201834862385321</v>
+        <v>0.02295552367288379</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1522935779816514</v>
+        <v>0.1549497847919656</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.06788990825688074</v>
+        <v>0.07317073170731707</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.008849557522123894</v>
+        <v>0.007246376811594203</v>
       </c>
       <c r="C3">
-        <v>0.03244837758112094</v>
+        <v>0.03864734299516908</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03539823008849557</v>
+        <v>0.03140096618357488</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7551622418879056</v>
+        <v>0.748792270531401</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.168141592920354</v>
+        <v>0.1739130434782609</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05102040816326531</v>
+        <v>0.04310344827586207</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6938775510204082</v>
+        <v>0.6724137931034483</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2551020408163265</v>
+        <v>0.2844827586206897</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1428571428571428</v>
+        <v>0.125</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.5714285714285714</v>
+        <v>0.5</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.2857142857142857</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0437375745526839</v>
+        <v>0.04944178628389154</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01391650099403579</v>
+        <v>0.0127591706539075</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05964214711729622</v>
+        <v>0.06379585326953748</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2186878727634195</v>
+        <v>0.2248803827751196</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02783300198807157</v>
+        <v>0.02711323763955343</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.168986083499006</v>
+        <v>0.1610845295055821</v>
       </c>
       <c r="R6">
-        <v>0.08151093439363817</v>
+        <v>0.08452950558213716</v>
       </c>
       <c r="S6">
-        <v>0.3856858846918489</v>
+        <v>0.3763955342902711</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.09610389610389611</v>
+        <v>0.09001956947162426</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01558441558441558</v>
+        <v>0.01565557729941291</v>
       </c>
       <c r="E7">
-        <v>0.005194805194805195</v>
+        <v>0.003913894324853229</v>
       </c>
       <c r="F7">
-        <v>0.06753246753246753</v>
+        <v>0.06066536203522505</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1272727272727273</v>
+        <v>0.136986301369863</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.04155844155844156</v>
+        <v>0.03326810176125244</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1766233766233766</v>
+        <v>0.1761252446183953</v>
       </c>
       <c r="R7">
-        <v>0.08571428571428572</v>
+        <v>0.08023483365949119</v>
       </c>
       <c r="S7">
-        <v>0.3844155844155844</v>
+        <v>0.4031311154598826</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.07987866531850354</v>
+        <v>0.07977437550362611</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01617795753286148</v>
+        <v>0.016116035455278</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06471183013144591</v>
+        <v>0.06688154713940371</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1445904954499495</v>
+        <v>0.1377921031426269</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02022244691607684</v>
+        <v>0.0217566478646253</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.166835187057634</v>
+        <v>0.1635777598710717</v>
       </c>
       <c r="R8">
-        <v>0.09201213346814964</v>
+        <v>0.09669621273166801</v>
       </c>
       <c r="S8">
-        <v>0.4155712841253792</v>
+        <v>0.4174053182917002</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08425720620842572</v>
+        <v>0.075</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01552106430155211</v>
+        <v>0.01607142857142857</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.001785714285714286</v>
       </c>
       <c r="F9">
-        <v>0.07317073170731707</v>
+        <v>0.06428571428571428</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1130820399113082</v>
+        <v>0.1142857142857143</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.0221729490022173</v>
+        <v>0.01964285714285714</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1707317073170732</v>
+        <v>0.1714285714285714</v>
       </c>
       <c r="R9">
-        <v>0.09312638580931264</v>
+        <v>0.1</v>
       </c>
       <c r="S9">
-        <v>0.4279379157427938</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.08759124087591241</v>
+        <v>0.09068150208623088</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02120264164059784</v>
+        <v>0.01974965229485396</v>
       </c>
       <c r="E10">
-        <v>0.001737921445950643</v>
+        <v>0.001390820584144645</v>
       </c>
       <c r="F10">
-        <v>0.07264511644073687</v>
+        <v>0.0717663421418637</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1348627042057699</v>
+        <v>0.1349095966620306</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01807438303788669</v>
+        <v>0.01752433936022253</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2398331595411888</v>
+        <v>0.2303198887343533</v>
       </c>
       <c r="R10">
-        <v>0.08793882516510254</v>
+        <v>0.08845618915159945</v>
       </c>
       <c r="S10">
-        <v>0.3361140076468543</v>
+        <v>0.3452016689847009</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1486486486486487</v>
+        <v>0.1432129514321295</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08783783783783784</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="K11">
-        <v>0.1959459459459459</v>
+        <v>0.1917808219178082</v>
       </c>
       <c r="L11">
-        <v>0.5608108108108109</v>
+        <v>0.564134495641345</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.006756756756756757</v>
+        <v>0.009962640099626401</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7450424929178471</v>
+        <v>0.7478991596638656</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1813031161473088</v>
+        <v>0.180672268907563</v>
       </c>
       <c r="K12">
-        <v>0.0084985835694051</v>
+        <v>0.008403361344537815</v>
       </c>
       <c r="L12">
-        <v>0.056657223796034</v>
+        <v>0.04831932773109244</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.0084985835694051</v>
+        <v>0.01470588235294118</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6515151515151515</v>
+        <v>0.6265060240963856</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3181818181818182</v>
+        <v>0.3132530120481928</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.0303030303030303</v>
+        <v>0.06024096385542169</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01656314699792961</v>
+        <v>0.01592356687898089</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1614906832298137</v>
+        <v>0.1624203821656051</v>
       </c>
       <c r="I15">
-        <v>0.05383022774327122</v>
+        <v>0.05732484076433121</v>
       </c>
       <c r="J15">
-        <v>0.3747412008281574</v>
+        <v>0.3694267515923567</v>
       </c>
       <c r="K15">
-        <v>0.05383022774327122</v>
+        <v>0.05573248407643312</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.008281573498964804</v>
+        <v>0.009554140127388535</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06418219461697723</v>
+        <v>0.07165605095541401</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2670807453416149</v>
+        <v>0.2579617834394904</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02056555269922879</v>
+        <v>0.01894736842105263</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1748071979434447</v>
+        <v>0.1726315789473684</v>
       </c>
       <c r="I16">
-        <v>0.09511568123393316</v>
+        <v>0.1031578947368421</v>
       </c>
       <c r="J16">
-        <v>0.4241645244215938</v>
+        <v>0.4294736842105263</v>
       </c>
       <c r="K16">
-        <v>0.08740359897172237</v>
+        <v>0.09263157894736843</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02056555269922879</v>
+        <v>0.01894736842105263</v>
       </c>
       <c r="N16">
-        <v>0.002570694087403599</v>
+        <v>0.002105263157894737</v>
       </c>
       <c r="O16">
-        <v>0.05141388174807198</v>
+        <v>0.04210526315789474</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1233933161953727</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01291512915129151</v>
+        <v>0.01374045801526718</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1725092250922509</v>
+        <v>0.1702290076335878</v>
       </c>
       <c r="I17">
-        <v>0.0959409594095941</v>
+        <v>0.09770992366412214</v>
       </c>
       <c r="J17">
-        <v>0.4501845018450185</v>
+        <v>0.4404580152671756</v>
       </c>
       <c r="K17">
-        <v>0.0959409594095941</v>
+        <v>0.09923664122137404</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01199261992619926</v>
+        <v>0.01221374045801527</v>
       </c>
       <c r="N17">
-        <v>0.002767527675276753</v>
+        <v>0.002290076335877863</v>
       </c>
       <c r="O17">
-        <v>0.06273062730627306</v>
+        <v>0.06183206106870229</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.09501845018450185</v>
+        <v>0.1022900763358779</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01766004415011038</v>
+        <v>0.01890034364261168</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1986754966887417</v>
+        <v>0.1941580756013746</v>
       </c>
       <c r="I18">
-        <v>0.0772626931567329</v>
+        <v>0.07903780068728522</v>
       </c>
       <c r="J18">
-        <v>0.4282560706401766</v>
+        <v>0.4140893470790378</v>
       </c>
       <c r="K18">
-        <v>0.1015452538631347</v>
+        <v>0.1030927835051546</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01545253863134658</v>
+        <v>0.01202749140893471</v>
       </c>
       <c r="N18">
-        <v>0.002207505518763797</v>
+        <v>0.001718213058419244</v>
       </c>
       <c r="O18">
-        <v>0.06622516556291391</v>
+        <v>0.07903780068728522</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.09271523178807947</v>
+        <v>0.09793814432989691</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.0150462962962963</v>
+        <v>0.01528776978417266</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2110339506172839</v>
+        <v>0.2113309352517986</v>
       </c>
       <c r="I19">
-        <v>0.09490740740740741</v>
+        <v>0.08992805755395683</v>
       </c>
       <c r="J19">
-        <v>0.3942901234567901</v>
+        <v>0.3827937649880096</v>
       </c>
       <c r="K19">
-        <v>0.1014660493827161</v>
+        <v>0.11121103117506</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01388888888888889</v>
+        <v>0.01438848920863309</v>
       </c>
       <c r="N19">
-        <v>0.0003858024691358024</v>
+        <v>0.0005995203836930455</v>
       </c>
       <c r="O19">
-        <v>0.06905864197530864</v>
+        <v>0.07254196642685851</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.09992283950617284</v>
+        <v>0.1019184652278178</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Virginia_B.xlsx
+++ b/team_specific_matrix/Virginia_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1908177905308465</v>
+        <v>0.1844155844155844</v>
       </c>
       <c r="C2">
-        <v>0.5581061692969871</v>
+        <v>0.5701298701298702</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02295552367288379</v>
+        <v>0.02467532467532468</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1549497847919656</v>
+        <v>0.1454545454545454</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07317073170731707</v>
+        <v>0.07532467532467532</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.007246376811594203</v>
+        <v>0.006437768240343348</v>
       </c>
       <c r="C3">
-        <v>0.03864734299516908</v>
+        <v>0.03862660944206009</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03140096618357488</v>
+        <v>0.03004291845493562</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.748792270531401</v>
+        <v>0.7489270386266095</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1739130434782609</v>
+        <v>0.1759656652360515</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.04310344827586207</v>
+        <v>0.03937007874015748</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6724137931034483</v>
+        <v>0.6692913385826772</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2844827586206897</v>
+        <v>0.2913385826771653</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04944178628389154</v>
+        <v>0.04748201438848921</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0127591706539075</v>
+        <v>0.01151079136690648</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.06379585326953748</v>
+        <v>0.06474820143884892</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2248803827751196</v>
+        <v>0.2258992805755396</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02711323763955343</v>
+        <v>0.03165467625899281</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1610845295055821</v>
+        <v>0.1640287769784173</v>
       </c>
       <c r="R6">
-        <v>0.08452950558213716</v>
+        <v>0.08345323741007195</v>
       </c>
       <c r="S6">
-        <v>0.3763955342902711</v>
+        <v>0.3712230215827338</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.09001956947162426</v>
+        <v>0.08892921960072596</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01565557729941291</v>
+        <v>0.01633393829401089</v>
       </c>
       <c r="E7">
-        <v>0.003913894324853229</v>
+        <v>0.003629764065335753</v>
       </c>
       <c r="F7">
-        <v>0.06066536203522505</v>
+        <v>0.06533575317604355</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.136986301369863</v>
+        <v>0.132486388384755</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.03326810176125244</v>
+        <v>0.03266787658802178</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1761252446183953</v>
+        <v>0.1742286751361161</v>
       </c>
       <c r="R7">
-        <v>0.08023483365949119</v>
+        <v>0.08348457350272233</v>
       </c>
       <c r="S7">
-        <v>0.4031311154598826</v>
+        <v>0.4029038112522686</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.07977437550362611</v>
+        <v>0.08096280087527352</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.016116035455278</v>
+        <v>0.0175054704595186</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06688154713940371</v>
+        <v>0.06564551422319474</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1377921031426269</v>
+        <v>0.1312910284463895</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.0217566478646253</v>
+        <v>0.02334062727935813</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1635777598710717</v>
+        <v>0.1684901531728665</v>
       </c>
       <c r="R8">
-        <v>0.09669621273166801</v>
+        <v>0.1021152443471918</v>
       </c>
       <c r="S8">
-        <v>0.4174053182917002</v>
+        <v>0.4106491611962071</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.075</v>
+        <v>0.08414239482200647</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01607142857142857</v>
+        <v>0.01456310679611651</v>
       </c>
       <c r="E9">
-        <v>0.001785714285714286</v>
+        <v>0.001618122977346278</v>
       </c>
       <c r="F9">
-        <v>0.06428571428571428</v>
+        <v>0.06472491909385113</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1142857142857143</v>
+        <v>0.1148867313915858</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01964285714285714</v>
+        <v>0.0226537216828479</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1714285714285714</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="R9">
-        <v>0.1</v>
+        <v>0.1019417475728155</v>
       </c>
       <c r="S9">
-        <v>0.4375</v>
+        <v>0.4288025889967638</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09068150208623088</v>
+        <v>0.09178255372945639</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01974965229485396</v>
+        <v>0.01946902654867257</v>
       </c>
       <c r="E10">
-        <v>0.001390820584144645</v>
+        <v>0.001264222503160556</v>
       </c>
       <c r="F10">
-        <v>0.0717663421418637</v>
+        <v>0.07281921618204804</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1349095966620306</v>
+        <v>0.1319848293299621</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01752433936022253</v>
+        <v>0.01769911504424779</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2303198887343533</v>
+        <v>0.229582806573957</v>
       </c>
       <c r="R10">
-        <v>0.08845618915159945</v>
+        <v>0.08874841972187104</v>
       </c>
       <c r="S10">
-        <v>0.3452016689847009</v>
+        <v>0.3466498103666245</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1432129514321295</v>
+        <v>0.1425287356321839</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09090909090909091</v>
+        <v>0.0896551724137931</v>
       </c>
       <c r="K11">
-        <v>0.1917808219178082</v>
+        <v>0.1896551724137931</v>
       </c>
       <c r="L11">
-        <v>0.564134495641345</v>
+        <v>0.5689655172413793</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.009962640099626401</v>
+        <v>0.009195402298850575</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7478991596638656</v>
+        <v>0.7408829174664108</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.180672268907563</v>
+        <v>0.1880998080614203</v>
       </c>
       <c r="K12">
-        <v>0.008403361344537815</v>
+        <v>0.007677543186180422</v>
       </c>
       <c r="L12">
-        <v>0.04831932773109244</v>
+        <v>0.04606525911708254</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01470588235294118</v>
+        <v>0.01727447216890595</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6265060240963856</v>
+        <v>0.6063829787234043</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3132530120481928</v>
+        <v>0.3404255319148936</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.06024096385542169</v>
+        <v>0.05319148936170213</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01592356687898089</v>
+        <v>0.01566951566951567</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1624203821656051</v>
+        <v>0.1566951566951567</v>
       </c>
       <c r="I15">
-        <v>0.05732484076433121</v>
+        <v>0.0584045584045584</v>
       </c>
       <c r="J15">
-        <v>0.3694267515923567</v>
+        <v>0.3774928774928775</v>
       </c>
       <c r="K15">
-        <v>0.05573248407643312</v>
+        <v>0.05413105413105413</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.009554140127388535</v>
+        <v>0.008547008547008548</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.07165605095541401</v>
+        <v>0.0698005698005698</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2579617834394904</v>
+        <v>0.2592592592592592</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01894736842105263</v>
+        <v>0.01912045889101338</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1726315789473684</v>
+        <v>0.1720841300191205</v>
       </c>
       <c r="I16">
-        <v>0.1031578947368421</v>
+        <v>0.0994263862332696</v>
       </c>
       <c r="J16">
-        <v>0.4294736842105263</v>
+        <v>0.4225621414913958</v>
       </c>
       <c r="K16">
-        <v>0.09263157894736843</v>
+        <v>0.09560229445506692</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01894736842105263</v>
+        <v>0.01720841300191205</v>
       </c>
       <c r="N16">
-        <v>0.002105263157894737</v>
+        <v>0.001912045889101338</v>
       </c>
       <c r="O16">
-        <v>0.04210526315789474</v>
+        <v>0.0497131931166348</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.12</v>
+        <v>0.1223709369024857</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01374045801526718</v>
+        <v>0.01246537396121884</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1702290076335878</v>
+        <v>0.1717451523545706</v>
       </c>
       <c r="I17">
-        <v>0.09770992366412214</v>
+        <v>0.100415512465374</v>
       </c>
       <c r="J17">
-        <v>0.4404580152671756</v>
+        <v>0.4411357340720222</v>
       </c>
       <c r="K17">
-        <v>0.09923664122137404</v>
+        <v>0.09626038781163435</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01221374045801527</v>
+        <v>0.01246537396121884</v>
       </c>
       <c r="N17">
-        <v>0.002290076335877863</v>
+        <v>0.002077562326869806</v>
       </c>
       <c r="O17">
-        <v>0.06183206106870229</v>
+        <v>0.06163434903047092</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1022900763358779</v>
+        <v>0.1018005540166205</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01890034364261168</v>
+        <v>0.0245398773006135</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1941580756013746</v>
+        <v>0.1886503067484663</v>
       </c>
       <c r="I18">
-        <v>0.07903780068728522</v>
+        <v>0.07822085889570553</v>
       </c>
       <c r="J18">
-        <v>0.4140893470790378</v>
+        <v>0.4217791411042945</v>
       </c>
       <c r="K18">
-        <v>0.1030927835051546</v>
+        <v>0.1012269938650307</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01202749140893471</v>
+        <v>0.01226993865030675</v>
       </c>
       <c r="N18">
-        <v>0.001718213058419244</v>
+        <v>0.001533742331288344</v>
       </c>
       <c r="O18">
-        <v>0.07903780068728522</v>
+        <v>0.07515337423312883</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.09793814432989691</v>
+        <v>0.09662576687116564</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01528776978417266</v>
+        <v>0.01474201474201474</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2113309352517986</v>
+        <v>0.2148512148512149</v>
       </c>
       <c r="I19">
-        <v>0.08992805755395683</v>
+        <v>0.09009009009009009</v>
       </c>
       <c r="J19">
-        <v>0.3827937649880096</v>
+        <v>0.3808353808353808</v>
       </c>
       <c r="K19">
-        <v>0.11121103117506</v>
+        <v>0.1094731094731095</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01438848920863309</v>
+        <v>0.01528801528801529</v>
       </c>
       <c r="N19">
-        <v>0.0005995203836930455</v>
+        <v>0.000546000546000546</v>
       </c>
       <c r="O19">
-        <v>0.07254196642685851</v>
+        <v>0.07316407316407317</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1019184652278178</v>
+        <v>0.101010101010101</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Virginia_B.xlsx
+++ b/team_specific_matrix/Virginia_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1844155844155844</v>
+        <v>0.1833952912019826</v>
       </c>
       <c r="C2">
-        <v>0.5701298701298702</v>
+        <v>0.5712515489467163</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02467532467532468</v>
+        <v>0.02478314745972739</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1454545454545454</v>
+        <v>0.1412639405204461</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07532467532467532</v>
+        <v>0.07930607187112763</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.006437768240343348</v>
+        <v>0.006134969325153374</v>
       </c>
       <c r="C3">
-        <v>0.03862660944206009</v>
+        <v>0.03885480572597137</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03004291845493562</v>
+        <v>0.03476482617586912</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7489270386266095</v>
+        <v>0.7464212678936605</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1759656652360515</v>
+        <v>0.1738241308793456</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03937007874015748</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6692913385826772</v>
+        <v>0.6615384615384615</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2913385826771653</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04748201438848921</v>
+        <v>0.0502092050209205</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01151079136690648</v>
+        <v>0.01115760111576011</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.06474820143884892</v>
+        <v>0.06276150627615062</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2258992805755396</v>
+        <v>0.2259414225941423</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.03165467625899281</v>
+        <v>0.03207810320781032</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1640287769784173</v>
+        <v>0.1645746164574617</v>
       </c>
       <c r="R6">
-        <v>0.08345323741007195</v>
+        <v>0.08507670850767085</v>
       </c>
       <c r="S6">
-        <v>0.3712230215827338</v>
+        <v>0.3682008368200837</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.08892921960072596</v>
+        <v>0.09027777777777778</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01633393829401089</v>
+        <v>0.015625</v>
       </c>
       <c r="E7">
-        <v>0.003629764065335753</v>
+        <v>0.003472222222222222</v>
       </c>
       <c r="F7">
-        <v>0.06533575317604355</v>
+        <v>0.0642361111111111</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.132486388384755</v>
+        <v>0.1319444444444444</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.03266787658802178</v>
+        <v>0.03125</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1742286751361161</v>
+        <v>0.1736111111111111</v>
       </c>
       <c r="R7">
-        <v>0.08348457350272233</v>
+        <v>0.08159722222222222</v>
       </c>
       <c r="S7">
-        <v>0.4029038112522686</v>
+        <v>0.4079861111111111</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08096280087527352</v>
+        <v>0.08157524613220815</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0175054704595186</v>
+        <v>0.01687763713080169</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06564551422319474</v>
+        <v>0.06610407876230662</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1312910284463895</v>
+        <v>0.129395218002813</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02334062727935813</v>
+        <v>0.02250351617440225</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1684901531728665</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="R8">
-        <v>0.1021152443471918</v>
+        <v>0.1075949367088608</v>
       </c>
       <c r="S8">
-        <v>0.4106491611962071</v>
+        <v>0.4092827004219409</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08414239482200647</v>
+        <v>0.08437500000000001</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01456310679611651</v>
+        <v>0.0140625</v>
       </c>
       <c r="E9">
-        <v>0.001618122977346278</v>
+        <v>0.0015625</v>
       </c>
       <c r="F9">
-        <v>0.06472491909385113</v>
+        <v>0.0625</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1148867313915858</v>
+        <v>0.1140625</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.0226537216828479</v>
+        <v>0.0234375</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1666666666666667</v>
+        <v>0.16875</v>
       </c>
       <c r="R9">
-        <v>0.1019417475728155</v>
+        <v>0.1015625</v>
       </c>
       <c r="S9">
-        <v>0.4288025889967638</v>
+        <v>0.4296875</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09178255372945639</v>
+        <v>0.0927734375</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01946902654867257</v>
+        <v>0.01953125</v>
       </c>
       <c r="E10">
-        <v>0.001264222503160556</v>
+        <v>0.001220703125</v>
       </c>
       <c r="F10">
-        <v>0.07281921618204804</v>
+        <v>0.072509765625</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1319848293299621</v>
+        <v>0.131591796875</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01769911504424779</v>
+        <v>0.01806640625</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.229582806573957</v>
+        <v>0.227783203125</v>
       </c>
       <c r="R10">
-        <v>0.08874841972187104</v>
+        <v>0.088623046875</v>
       </c>
       <c r="S10">
-        <v>0.3466498103666245</v>
+        <v>0.347900390625</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1425287356321839</v>
+        <v>0.1427003293084523</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0896551724137931</v>
+        <v>0.09440175631174534</v>
       </c>
       <c r="K11">
-        <v>0.1896551724137931</v>
+        <v>0.1931942919868277</v>
       </c>
       <c r="L11">
-        <v>0.5689655172413793</v>
+        <v>0.5609220636663008</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.009195402298850575</v>
+        <v>0.008781558726673985</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7408829174664108</v>
+        <v>0.7421150278293135</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1880998080614203</v>
+        <v>0.1855287569573284</v>
       </c>
       <c r="K12">
-        <v>0.007677543186180422</v>
+        <v>0.007421150278293136</v>
       </c>
       <c r="L12">
-        <v>0.04606525911708254</v>
+        <v>0.04823747680890538</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01727447216890595</v>
+        <v>0.01669758812615955</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6063829787234043</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3404255319148936</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.05319148936170213</v>
+        <v>0.04901960784313725</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01566951566951567</v>
+        <v>0.01517241379310345</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1566951566951567</v>
+        <v>0.1544827586206897</v>
       </c>
       <c r="I15">
-        <v>0.0584045584045584</v>
+        <v>0.05793103448275862</v>
       </c>
       <c r="J15">
-        <v>0.3774928774928775</v>
+        <v>0.383448275862069</v>
       </c>
       <c r="K15">
-        <v>0.05413105413105413</v>
+        <v>0.05517241379310345</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.008547008547008548</v>
+        <v>0.008275862068965517</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.0698005698005698</v>
+        <v>0.06758620689655172</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2592592592592592</v>
+        <v>0.2579310344827586</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01912045889101338</v>
+        <v>0.01848428835489834</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1720841300191205</v>
+        <v>0.1719038817005545</v>
       </c>
       <c r="I16">
-        <v>0.0994263862332696</v>
+        <v>0.09611829944547134</v>
       </c>
       <c r="J16">
-        <v>0.4225621414913958</v>
+        <v>0.4288354898336414</v>
       </c>
       <c r="K16">
-        <v>0.09560229445506692</v>
+        <v>0.09426987060998152</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01720841300191205</v>
+        <v>0.01848428835489834</v>
       </c>
       <c r="N16">
-        <v>0.001912045889101338</v>
+        <v>0.001848428835489834</v>
       </c>
       <c r="O16">
-        <v>0.0497131931166348</v>
+        <v>0.04990757855822551</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1223709369024857</v>
+        <v>0.1201478743068392</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01246537396121884</v>
+        <v>0.01343183344526528</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1717451523545706</v>
+        <v>0.1732706514439221</v>
       </c>
       <c r="I17">
-        <v>0.100415512465374</v>
+        <v>0.1007387508394896</v>
       </c>
       <c r="J17">
-        <v>0.4411357340720222</v>
+        <v>0.4392209536601746</v>
       </c>
       <c r="K17">
-        <v>0.09626038781163435</v>
+        <v>0.09603760913364674</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01246537396121884</v>
+        <v>0.01276024177300202</v>
       </c>
       <c r="N17">
-        <v>0.002077562326869806</v>
+        <v>0.002014775016789792</v>
       </c>
       <c r="O17">
-        <v>0.06163434903047092</v>
+        <v>0.06111484217595702</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1018005540166205</v>
+        <v>0.1014103425117528</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.0245398773006135</v>
+        <v>0.0249266862170088</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1886503067484663</v>
+        <v>0.1891495601173021</v>
       </c>
       <c r="I18">
-        <v>0.07822085889570553</v>
+        <v>0.08064516129032258</v>
       </c>
       <c r="J18">
-        <v>0.4217791411042945</v>
+        <v>0.4178885630498534</v>
       </c>
       <c r="K18">
-        <v>0.1012269938650307</v>
+        <v>0.09824046920821114</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01226993865030675</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="N18">
-        <v>0.001533742331288344</v>
+        <v>0.001466275659824047</v>
       </c>
       <c r="O18">
-        <v>0.07515337423312883</v>
+        <v>0.0747800586510264</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.09662576687116564</v>
+        <v>0.09677419354838709</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01474201474201474</v>
+        <v>0.01471747700394218</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2148512148512149</v>
+        <v>0.2149802890932983</v>
       </c>
       <c r="I19">
-        <v>0.09009009009009009</v>
+        <v>0.08988173455978975</v>
       </c>
       <c r="J19">
-        <v>0.3808353808353808</v>
+        <v>0.3779237844940867</v>
       </c>
       <c r="K19">
-        <v>0.1094731094731095</v>
+        <v>0.1114323258869908</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01528801528801529</v>
+        <v>0.01576872536136662</v>
       </c>
       <c r="N19">
-        <v>0.000546000546000546</v>
+        <v>0.0005256241787122207</v>
       </c>
       <c r="O19">
-        <v>0.07316407316407317</v>
+        <v>0.07279894875164257</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.101010101010101</v>
+        <v>0.1019710906701708</v>
       </c>
     </row>
   </sheetData>
